--- a/数据整理/stocks/A股/上证主板/603317-天味食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603317-天味食品.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006157</t>
+          <t>270005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通量化核心优选混合</t>
+          <t>广发聚丰混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>71.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0401</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>35.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>82.06</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.74</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3988</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>570008</t>
+          <t>270050</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺德周期策略混合</t>
+          <t>广发新经济混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.41</t>
+          <t>31.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8908</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>270050</t>
+          <t>570008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发新经济混合A</t>
+          <t>诺德周期策略混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8478</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009486</t>
+          <t>161017</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>光大保德信瑞和混合A</t>
+          <t>富国中证500指数增强(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>72.94</t>
+          <t>50.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7198</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009487</t>
+          <t>007750</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>光大保德信瑞和混合C</t>
+          <t>广发优势增长股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>72.94</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4940</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010025</t>
+          <t>009874</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发聚丰混合C</t>
+          <t>九泰久睿量化股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>15.49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010134</t>
+          <t>009486</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发新经济混合C</t>
+          <t>光大保德信瑞和混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001242</t>
+          <t>002906</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数A</t>
+          <t>南方中证500量化增强股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001243</t>
+          <t>502000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数I</t>
+          <t>西部利得中证500指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>001242</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国中证500指数增强(LOF)</t>
+          <t>博时中证淘金大数据100指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>270005</t>
+          <t>001243</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发聚丰混合A</t>
+          <t>博时中证淘金大数据100指数I</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.51</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002906</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票A</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.11</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002907</t>
+          <t>010134</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票C</t>
+          <t>广发新经济混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.11</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004192</t>
+          <t>004945</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>招商中证500指数增强A</t>
+          <t>长信中证500指数增强</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004193</t>
+          <t>002907</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>招商中证500指数增强C</t>
+          <t>南方中证500量化增强股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -950,15 +1120,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>31.09</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>4.70</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>5</v>
       </c>
     </row>
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>003001</t>
+          <t>009300</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>招商丰德灵活配置混合C</t>
+          <t>西部利得中证500指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>31.09</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007750</t>
+          <t>001897</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发优势增长股票</t>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001897</t>
+          <t>004192</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>九泰久盛量化先锋灵活配置混合A</t>
+          <t>招商中证500指数增强A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1052,25 +1262,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>008124</t>
+          <t>590007</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强C</t>
+          <t>中邮中证500指数增强A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>94.83</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2.32</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008230</t>
+          <t>010025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>九泰天辰量化新动力股票</t>
+          <t>广发聚丰混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.11</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009039</t>
+          <t>008230</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>九泰久远量化驱动股票A</t>
+          <t>九泰天辰量化新动力股票</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>92.26</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>6</v>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1136,25 +1376,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009040</t>
+          <t>009039</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>九泰久远量化驱动股票C</t>
+          <t>九泰久远量化驱动股票A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>92.26</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>0.79</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009300</t>
+          <t>006157</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>西部利得中证500指数增强（LOF）C</t>
+          <t>财通量化核心优选混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1192,26 +1452,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009874</t>
+          <t>004193</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>九泰久睿量化股票</t>
+          <t>招商中证500指数增强C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>004945</t>
+          <t>515510</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>长信中证500指数增强</t>
+          <t>嘉实中证500成长估值ETF</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>502000</t>
+          <t>009487</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>西部利得中证500指数增强（LOF）A</t>
+          <t>光大保德信瑞和混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1276,26 +1566,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>515510</t>
+          <t>003001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>嘉实中证500成长估值ETF</t>
+          <t>招商丰德灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
+          <t>31.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1304,26 +1604,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>590007</t>
+          <t>009040</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强A</t>
+          <t>九泰久远量化驱动股票C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1332,25 +1642,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>004142</t>
+          <t>004510</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合A</t>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1360,26 +1680,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>004143</t>
+          <t>008124</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合C</t>
+          <t>中邮中证500指数增强C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1388,25 +1718,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>004510</t>
+          <t>004143</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>九泰久盛量化先锋灵活配置混合C</t>
+          <t>招商盛合灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1421,7 +1761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,15 +1782,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009619</t>
+          <t>001437</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时女性消费主题混合A</t>
+          <t>易方达瑞享灵活配置混合I</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.60</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009620</t>
+          <t>001438</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时女性消费主题混合C</t>
+          <t>易方达瑞享灵活配置混合E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>66.60</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001437</t>
+          <t>009619</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合I</t>
+          <t>博时女性消费主题混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>66.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001438</t>
+          <t>009620</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达瑞享灵活配置混合E</t>
+          <t>博时女性消费主题混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>66.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603317-天味食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603317-天味食品.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1961,4 +1962,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6091</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603317-天味食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603317-天味食品.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2284,4 +2285,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603317-天味食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603317-天味食品.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2293,7 +2294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2304,17 +2305,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2324,14 +2345,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.04</v>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2340,14 +2383,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="4">
@@ -2356,13 +2489,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>33</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>10.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603317-天味食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603317-天味食品.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2426,7 +2427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,17 +2438,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2457,14 +2478,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.27</v>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2473,14 +2516,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.04</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -2489,14 +2622,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="5">
@@ -2505,13 +2638,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>33</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603317-天味食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603317-天味食品.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2559,7 +2560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2570,17 +2571,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2590,14 +2611,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.58</v>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2606,14 +2649,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.27</v>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6709</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2622,14 +2687,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.04</v>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4821</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2638,14 +2725,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3</v>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1878</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2654,13 +2763,697 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>33</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.45</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603317-天味食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603317-天味食品.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>2.99</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>0.58</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.04</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>33</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.45</v>
       </c>
     </row>
@@ -583,6 +600,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6134</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5238</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1531</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>57.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1351,138 +2032,6 @@
       </c>
       <c r="H20" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519694</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4455</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008234</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光大保德信消费主题股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1315</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1547,36 +2096,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008234</t>
+          <t>519694</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光大保德信消费主题股票</t>
+          <t>交银蓝筹混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>16.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>82.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1662</t>
+          <t>0.4455</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1585,36 +2134,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>008234</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>光大保德信消费主题股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>91.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1037</t>
+          <t>0.1315</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1623,6 +2172,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1944,7 +2625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2152,7 +2833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603317-天味食品.xlsx
+++ b/数据整理/stocks/A股/上证主板/603317-天味食品.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>2.45</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>2.99</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.58</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.27</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2.04</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>33</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.45</v>
       </c>
     </row>
@@ -600,6 +617,784 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4477</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012498</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012499</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015633</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015634</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1263,7 +2058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2032,138 +2827,6 @@
       </c>
       <c r="H20" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519694</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.14</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4455</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008234</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光大保德信消费主题股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1315</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2228,36 +2891,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008234</t>
+          <t>519694</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光大保德信消费主题股票</t>
+          <t>交银蓝筹混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>16.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>82.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1662</t>
+          <t>0.4455</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2266,36 +2929,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>008234</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>光大保德信消费主题股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>91.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1037</t>
+          <t>0.1315</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2304,6 +2967,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008234</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>光大保德信消费主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1662</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2625,7 +3420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2833,7 +3628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
